--- a/data/trans_bre/P2B_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2B_R-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 10,29</t>
+          <t>-9,6; 10,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,73; 11,08</t>
+          <t>-18,95; 11,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,79; 20,09</t>
+          <t>-8,26; 20,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 17,12</t>
+          <t>-3,72; 16,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-50,11; 109,96</t>
+          <t>-48,31; 116,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-29,15; 24,5</t>
+          <t>-31,8; 25,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-17,45; 56,71</t>
+          <t>-15,43; 58,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-22,55; 174,31</t>
+          <t>-20,63; 181,23</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 10,4</t>
+          <t>-0,88; 10,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 10,19</t>
+          <t>-2,71; 10,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 5,16</t>
+          <t>-8,1; 5,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 5,8</t>
+          <t>-7,68; 5,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 52,31</t>
+          <t>-3,14; 49,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 21,04</t>
+          <t>-4,77; 20,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-16,17; 11,06</t>
+          <t>-15,05; 12,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-22,14; 25,29</t>
+          <t>-24,81; 21,91</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 7,75</t>
+          <t>-1,27; 7,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 6,8</t>
+          <t>-3,23; 6,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 10,83</t>
+          <t>1,08; 11,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,77; 11,64</t>
+          <t>2,64; 12,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 37,34</t>
+          <t>-5,01; 36,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 13,03</t>
+          <t>-5,63; 12,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,84; 25,81</t>
+          <t>2,34; 27,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,03; 47,63</t>
+          <t>8,84; 49,8</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 8,97</t>
+          <t>-0,37; 9,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 9,1</t>
+          <t>-3,08; 8,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,07; 12,89</t>
+          <t>1,5; 12,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 37,65</t>
+          <t>-0,78; 41,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 48,16</t>
+          <t>-1,51; 49,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 17,65</t>
+          <t>-5,44; 16,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,65; 41,36</t>
+          <t>4,0; 38,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 191,79</t>
+          <t>-3,91; 197,71</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,87; 10,65</t>
+          <t>1,42; 9,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 8,34</t>
+          <t>-1,55; 8,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,24; 12,04</t>
+          <t>2,55; 12,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 7,86</t>
+          <t>-0,62; 8,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,51; 55,8</t>
+          <t>5,95; 51,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 19,39</t>
+          <t>-3,26; 20,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,26; 32,28</t>
+          <t>5,86; 33,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 42,38</t>
+          <t>-3,38; 43,1</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,08; 6,75</t>
+          <t>2,08; 6,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 5,06</t>
+          <t>-0,35; 4,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,85; 8,05</t>
+          <t>2,61; 8,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,92; 15,91</t>
+          <t>2,89; 14,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,81; 32,82</t>
+          <t>8,95; 33,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 9,99</t>
+          <t>-0,61; 9,8</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,59; 20,23</t>
+          <t>6,1; 20,6</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11,85; 67,17</t>
+          <t>11,44; 63,75</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2B_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2B_R-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 10,35</t>
+          <t>-10,37; 9,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-18,95; 11,03</t>
+          <t>-17,98; 12,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 20,23</t>
+          <t>-8,24; 21,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-48,31; 116,99</t>
+          <t>-50,51; 104,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-31,8; 25,88</t>
+          <t>-30,05; 27,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-15,43; 58,1</t>
+          <t>-16,15; 60,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 10,05</t>
+          <t>-1,4; 9,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 10,24</t>
+          <t>-2,93; 10,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 5,83</t>
+          <t>-8,27; 5,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 49,02</t>
+          <t>-5,09; 48,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 20,54</t>
+          <t>-5,24; 20,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-15,05; 12,28</t>
+          <t>-15,34; 11,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 7,39</t>
+          <t>-1,37; 7,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 6,54</t>
+          <t>-3,45; 6,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,08; 11,11</t>
+          <t>0,84; 10,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 36,42</t>
+          <t>-5,49; 35,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 12,59</t>
+          <t>-5,97; 13,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,34; 27,18</t>
+          <t>2,07; 26,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 9,12</t>
+          <t>-0,7; 9,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 8,47</t>
+          <t>-3,18; 9,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,5; 12,02</t>
+          <t>1,19; 12,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 49,7</t>
+          <t>-3,56; 49,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 16,23</t>
+          <t>-5,48; 17,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,0; 38,05</t>
+          <t>2,99; 40,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,42; 9,79</t>
+          <t>1,52; 10,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 8,6</t>
+          <t>-1,63; 8,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,55; 12,31</t>
+          <t>2,7; 13,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,95; 51,45</t>
+          <t>6,47; 53,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 20,79</t>
+          <t>-3,49; 20,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,86; 33,15</t>
+          <t>5,84; 34,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,08; 6,71</t>
+          <t>1,82; 6,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 4,9</t>
+          <t>-0,5; 5,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,61; 8,16</t>
+          <t>2,67; 8,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,95; 33,06</t>
+          <t>8,16; 32,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 9,8</t>
+          <t>-0,91; 10,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,1; 20,6</t>
+          <t>6,15; 20,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">

--- a/data/trans_bre/P2B_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2B_R-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 9,81</t>
+          <t>-9,63; 10,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,98; 12,76</t>
+          <t>-16,73; 11,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 21,19</t>
+          <t>-8,79; 20,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 16,31</t>
+          <t>-4,57; 17,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-50,51; 104,88</t>
+          <t>-50,11; 109,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-30,05; 27,99</t>
+          <t>-29,15; 24,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-16,15; 60,9</t>
+          <t>-17,45; 56,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-20,63; 181,23</t>
+          <t>-22,55; 174,31</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 9,89</t>
+          <t>-1,56; 10,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 10,0</t>
+          <t>-2,93; 10,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,27; 5,51</t>
+          <t>-8,68; 5,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 5,03</t>
+          <t>-6,62; 5,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 48,9</t>
+          <t>-5,54; 52,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 20,05</t>
+          <t>-5,2; 21,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-15,34; 11,91</t>
+          <t>-16,17; 11,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-24,81; 21,91</t>
+          <t>-22,14; 25,29</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 7,26</t>
+          <t>-1,35; 7,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 6,77</t>
+          <t>-3,24; 6,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 10,47</t>
+          <t>0,96; 10,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,64; 12,12</t>
+          <t>2,77; 11,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 35,31</t>
+          <t>-6,57; 37,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 13,08</t>
+          <t>-5,55; 13,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,07; 26,25</t>
+          <t>1,84; 25,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,84; 49,8</t>
+          <t>9,03; 47,63</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 9,49</t>
+          <t>-0,79; 8,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 9,01</t>
+          <t>-2,45; 9,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,19; 12,65</t>
+          <t>1,07; 12,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 41,23</t>
+          <t>-0,67; 37,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 49,88</t>
+          <t>-3,55; 48,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 17,43</t>
+          <t>-4,24; 17,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,99; 40,55</t>
+          <t>2,65; 41,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 197,71</t>
+          <t>-3,38; 191,79</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,52; 10,36</t>
+          <t>1,87; 10,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 8,52</t>
+          <t>-1,2; 8,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,7; 13,04</t>
+          <t>2,24; 12,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 8,12</t>
+          <t>-0,51; 7,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,47; 53,48</t>
+          <t>7,51; 55,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 20,19</t>
+          <t>-2,73; 19,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,84; 34,76</t>
+          <t>5,26; 32,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 43,1</t>
+          <t>-2,29; 42,38</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,82; 6,79</t>
+          <t>2,08; 6,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 5,1</t>
+          <t>-0,35; 5,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,67; 8,3</t>
+          <t>2,85; 8,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,89; 14,92</t>
+          <t>2,92; 15,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,16; 32,82</t>
+          <t>8,81; 32,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 10,19</t>
+          <t>-0,67; 9,99</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,15; 20,53</t>
+          <t>6,59; 20,23</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11,44; 63,75</t>
+          <t>11,85; 67,17</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2B_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2B_R-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>3,75</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,42</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,24</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,93</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>16,96%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-6,63%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>14,13%</t>
+          <t>-0,13%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>44,72%</t>
+          <t>0,17%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 10,29</t>
+          <t>-2,15; 8,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,73; 11,08</t>
+          <t>-3,82; 8,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,79; 20,09</t>
+          <t>-5,63; 6,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 17,12</t>
+          <t>-7,12; 5,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-50,11; 109,96</t>
+          <t>-8,71; 41,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-29,15; 24,5</t>
+          <t>-7,06; 16,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-17,45; 56,71</t>
+          <t>-11,08; 14,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-22,55; 174,31</t>
+          <t>-26,03; 25,45</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,36</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,53</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>5,92</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>7,81</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>18,44%</t>
+          <t>13,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-2,68%</t>
+          <t>13,6%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-0,78%</t>
+          <t>30,46%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 10,4</t>
+          <t>-1,35; 7,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 10,19</t>
+          <t>-3,24; 6,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 5,16</t>
+          <t>0,96; 10,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 5,8</t>
+          <t>3,26; 12,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 52,31</t>
+          <t>-6,57; 37,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 21,04</t>
+          <t>-5,55; 13,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-16,17; 11,06</t>
+          <t>1,84; 25,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-22,14; 25,29</t>
+          <t>11,14; 52,34</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,11</t>
+          <t>4,43</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,92</t>
+          <t>6,78</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,27</t>
+          <t>20,72</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,72%</t>
+          <t>21,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>13,6%</t>
+          <t>19,82%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>26,83%</t>
+          <t>94,93%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 7,75</t>
+          <t>-0,79; 8,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 6,8</t>
+          <t>-2,45; 9,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 10,83</t>
+          <t>1,07; 12,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,77; 11,64</t>
+          <t>-1,77; 50,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 37,34</t>
+          <t>-3,55; 48,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 13,03</t>
+          <t>-4,24; 17,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,84; 25,81</t>
+          <t>2,65; 41,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,03; 47,63</t>
+          <t>-8,21; 277,06</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,43</t>
+          <t>6,02</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,78</t>
+          <t>7,54</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,13</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,0%</t>
+          <t>28,31%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>7,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,82%</t>
+          <t>18,74%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>57,69%</t>
+          <t>10,52%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 8,97</t>
+          <t>1,87; 10,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 9,1</t>
+          <t>-1,2; 8,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,07; 12,89</t>
+          <t>2,24; 12,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 37,65</t>
+          <t>-4,15; 6,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 48,16</t>
+          <t>7,51; 55,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 17,65</t>
+          <t>-2,73; 19,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,65; 41,36</t>
+          <t>5,26; 32,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 191,79</t>
+          <t>-18,83; 34,7</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,02</t>
+          <t>4,35</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,54</t>
+          <t>5,34</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,88</t>
+          <t>7,98</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>28,31%</t>
+          <t>19,95%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>7,55%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>18,74%</t>
+          <t>12,83%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>18,58%</t>
+          <t>34,87%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,87; 10,65</t>
+          <t>2,08; 6,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 8,34</t>
+          <t>-0,35; 5,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,24; 12,04</t>
+          <t>2,85; 8,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 7,86</t>
+          <t>1,9; 22,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,51; 55,8</t>
+          <t>8,81; 32,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 19,39</t>
+          <t>-0,67; 9,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,26; 32,28</t>
+          <t>6,59; 20,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 42,38</t>
+          <t>8,15; 102,08</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>4,35</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>2,35</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>5,34</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>6,37</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>19,95%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>4,54%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>12,83%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>26,68%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>2,08; 6,75</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-0,35; 5,06</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>2,85; 8,05</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>2,92; 15,91</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>8,81; 32,82</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-0,67; 9,99</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>6,59; 20,23</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>11,85; 67,17</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P2B_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2B_R-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 8,31</t>
+          <t>-1,45; 9,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 8,4</t>
+          <t>-3,65; 8,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 6,49</t>
+          <t>-6,44; 5,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 5,6</t>
+          <t>-7,87; 5,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 41,64</t>
+          <t>-6,18; 50,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 16,68</t>
+          <t>-6,55; 16,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-11,08; 14,25</t>
+          <t>-12,6; 12,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-26,03; 25,45</t>
+          <t>-28,7; 23,14</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 7,75</t>
+          <t>-1,13; 7,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 6,8</t>
+          <t>-3,35; 6,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,96; 10,83</t>
+          <t>0,62; 10,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,26; 12,1</t>
+          <t>3,33; 12,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 37,34</t>
+          <t>-4,33; 39,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 13,03</t>
+          <t>-5,81; 12,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,84; 25,81</t>
+          <t>1,31; 25,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,14; 52,34</t>
+          <t>11,31; 54,07</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 8,97</t>
+          <t>-1,06; 9,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 9,1</t>
+          <t>-3,77; 7,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,07; 12,89</t>
+          <t>1,03; 12,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 50,84</t>
+          <t>-1,37; 52,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 48,16</t>
+          <t>-4,71; 51,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 17,65</t>
+          <t>-6,47; 14,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,65; 41,36</t>
+          <t>3,36; 39,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 277,06</t>
+          <t>-4,84; 276,34</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,87; 10,65</t>
+          <t>1,34; 10,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 8,34</t>
+          <t>-1,5; 8,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,24; 12,04</t>
+          <t>2,35; 12,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 6,39</t>
+          <t>-4,94; 6,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,51; 55,8</t>
+          <t>5,36; 55,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 19,39</t>
+          <t>-2,93; 19,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,26; 32,28</t>
+          <t>5,41; 33,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-18,83; 34,7</t>
+          <t>-21,0; 34,45</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,08; 6,75</t>
+          <t>1,83; 6,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 5,06</t>
+          <t>-0,43; 4,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,85; 8,05</t>
+          <t>2,62; 7,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,9; 22,75</t>
+          <t>2,01; 23,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,81; 32,82</t>
+          <t>8,33; 32,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 9,99</t>
+          <t>-0,81; 9,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,59; 20,23</t>
+          <t>6,1; 19,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,15; 102,08</t>
+          <t>8,39; 103,65</t>
         </is>
       </c>
     </row>
